--- a/publication/analyses/outputs/supfigs/gdptlab_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/gdptlab_rmse-z_by_c-min.xlsx
@@ -473,10 +473,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D2" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E2" t="n">
         <v>2505</v>
@@ -496,10 +496,10 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="C3" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D3" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E3" t="n">
         <v>2505</v>
@@ -519,10 +519,10 @@
         <v>0.5204081632653061</v>
       </c>
       <c r="C4" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D4" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E4" t="n">
         <v>2505</v>
@@ -542,10 +542,10 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="C5" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D5" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E5" t="n">
         <v>2505</v>
@@ -565,10 +565,10 @@
         <v>0.5408163265306123</v>
       </c>
       <c r="C6" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D6" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E6" t="n">
         <v>2505</v>
@@ -588,10 +588,10 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="C7" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D7" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E7" t="n">
         <v>2505</v>
@@ -611,10 +611,10 @@
         <v>0.5612244897959183</v>
       </c>
       <c r="C8" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D8" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E8" t="n">
         <v>2505</v>
@@ -634,10 +634,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D9" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E9" t="n">
         <v>2505</v>
@@ -657,10 +657,10 @@
         <v>0.5816326530612245</v>
       </c>
       <c r="C10" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D10" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E10" t="n">
         <v>2505</v>
@@ -680,10 +680,10 @@
         <v>0.5918367346938775</v>
       </c>
       <c r="C11" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D11" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E11" t="n">
         <v>2505</v>
@@ -703,10 +703,10 @@
         <v>0.6020408163265306</v>
       </c>
       <c r="C12" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D12" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E12" t="n">
         <v>2505</v>
@@ -726,10 +726,10 @@
         <v>0.6122448979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D13" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E13" t="n">
         <v>2505</v>
@@ -749,10 +749,10 @@
         <v>0.6224489795918368</v>
       </c>
       <c r="C14" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D14" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E14" t="n">
         <v>2505</v>
@@ -772,10 +772,10 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="C15" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D15" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E15" t="n">
         <v>2505</v>
@@ -795,10 +795,10 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="C16" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D16" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E16" t="n">
         <v>2505</v>
@@ -818,10 +818,10 @@
         <v>0.6530612244897959</v>
       </c>
       <c r="C17" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D17" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E17" t="n">
         <v>2505</v>
@@ -841,10 +841,10 @@
         <v>0.6632653061224489</v>
       </c>
       <c r="C18" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D18" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E18" t="n">
         <v>2505</v>
@@ -864,10 +864,10 @@
         <v>0.673469387755102</v>
       </c>
       <c r="C19" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D19" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E19" t="n">
         <v>2505</v>
@@ -887,10 +887,10 @@
         <v>0.6836734693877551</v>
       </c>
       <c r="C20" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D20" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E20" t="n">
         <v>2505</v>
@@ -910,10 +910,10 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>2.080079980765119</v>
+        <v>2.080080285147816</v>
       </c>
       <c r="D21" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="E21" t="n">
         <v>2505</v>
@@ -933,10 +933,10 @@
         <v>0.7040816326530612</v>
       </c>
       <c r="C22" t="n">
-        <v>2.079473566502707</v>
+        <v>2.079473870866591</v>
       </c>
       <c r="D22" t="n">
-        <v>2.13679347971672</v>
+        <v>2.136793739392059</v>
       </c>
       <c r="E22" t="n">
         <v>2500</v>
@@ -956,10 +956,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>2.080684568019842</v>
+        <v>2.080684880113653</v>
       </c>
       <c r="D23" t="n">
-        <v>2.136280009248207</v>
+        <v>2.136280269825197</v>
       </c>
       <c r="E23" t="n">
         <v>2494</v>
@@ -979,10 +979,10 @@
         <v>0.7244897959183674</v>
       </c>
       <c r="C24" t="n">
-        <v>2.082167452059901</v>
+        <v>2.082167794276499</v>
       </c>
       <c r="D24" t="n">
-        <v>2.135554380114053</v>
+        <v>2.135554646700285</v>
       </c>
       <c r="E24" t="n">
         <v>2481</v>
@@ -1002,10 +1002,10 @@
         <v>0.7346938775510203</v>
       </c>
       <c r="C25" t="n">
-        <v>2.082444977275829</v>
+        <v>2.08244532169221</v>
       </c>
       <c r="D25" t="n">
-        <v>2.127589554120702</v>
+        <v>2.127589824506372</v>
       </c>
       <c r="E25" t="n">
         <v>2466</v>
@@ -1025,10 +1025,10 @@
         <v>0.7448979591836735</v>
       </c>
       <c r="C26" t="n">
-        <v>2.082927280528142</v>
+        <v>2.082927628195003</v>
       </c>
       <c r="D26" t="n">
-        <v>2.127329586119107</v>
+        <v>2.127329851444583</v>
       </c>
       <c r="E26" t="n">
         <v>2463</v>
@@ -1048,10 +1048,10 @@
         <v>0.7551020408163265</v>
       </c>
       <c r="C27" t="n">
-        <v>2.081801311628742</v>
+        <v>2.08180166241221</v>
       </c>
       <c r="D27" t="n">
-        <v>2.124988526557845</v>
+        <v>2.124988786269146</v>
       </c>
       <c r="E27" t="n">
         <v>2457</v>
@@ -1071,10 +1071,10 @@
         <v>0.7653061224489796</v>
       </c>
       <c r="C28" t="n">
-        <v>2.082165593947964</v>
+        <v>2.082165943680747</v>
       </c>
       <c r="D28" t="n">
-        <v>2.126195535155369</v>
+        <v>2.126195795769773</v>
       </c>
       <c r="E28" t="n">
         <v>2448</v>
@@ -1094,10 +1094,10 @@
         <v>0.7755102040816326</v>
       </c>
       <c r="C29" t="n">
-        <v>2.07973773451126</v>
+        <v>2.079738071531175</v>
       </c>
       <c r="D29" t="n">
-        <v>2.124861503877176</v>
+        <v>2.124861762704142</v>
       </c>
       <c r="E29" t="n">
         <v>2441</v>
@@ -1117,10 +1117,10 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>2.079508556455654</v>
+        <v>2.079508893355738</v>
       </c>
       <c r="D30" t="n">
-        <v>2.121556427014781</v>
+        <v>2.121556686447159</v>
       </c>
       <c r="E30" t="n">
         <v>2436</v>
@@ -1140,10 +1140,10 @@
         <v>0.7959183673469388</v>
       </c>
       <c r="C31" t="n">
-        <v>2.079053288704306</v>
+        <v>2.0790536266728</v>
       </c>
       <c r="D31" t="n">
-        <v>2.119863913269411</v>
+        <v>2.119864173534417</v>
       </c>
       <c r="E31" t="n">
         <v>2431</v>
@@ -1163,10 +1163,10 @@
         <v>0.8061224489795917</v>
       </c>
       <c r="C32" t="n">
-        <v>2.079607923620542</v>
+        <v>2.079608261473757</v>
       </c>
       <c r="D32" t="n">
-        <v>2.119958546609273</v>
+        <v>2.119958806842429</v>
       </c>
       <c r="E32" t="n">
         <v>2429</v>
@@ -1186,10 +1186,10 @@
         <v>0.8163265306122449</v>
       </c>
       <c r="C33" t="n">
-        <v>2.074153114056112</v>
+        <v>2.074153452317594</v>
       </c>
       <c r="D33" t="n">
-        <v>2.113221899440571</v>
+        <v>2.113222162087421</v>
       </c>
       <c r="E33" t="n">
         <v>2417</v>
@@ -1209,10 +1209,10 @@
         <v>0.8265306122448979</v>
       </c>
       <c r="C34" t="n">
-        <v>2.073782881293925</v>
+        <v>2.073783220027638</v>
       </c>
       <c r="D34" t="n">
-        <v>2.111660139973621</v>
+        <v>2.111660404112524</v>
       </c>
       <c r="E34" t="n">
         <v>2409</v>
@@ -1232,10 +1232,10 @@
         <v>0.8367346938775511</v>
       </c>
       <c r="C35" t="n">
-        <v>2.078419601854987</v>
+        <v>2.078419944008695</v>
       </c>
       <c r="D35" t="n">
-        <v>2.112066192130911</v>
+        <v>2.112066459888543</v>
       </c>
       <c r="E35" t="n">
         <v>2393</v>
@@ -1255,10 +1255,10 @@
         <v>0.846938775510204</v>
       </c>
       <c r="C36" t="n">
-        <v>2.070943326607865</v>
+        <v>2.070943611115337</v>
       </c>
       <c r="D36" t="n">
-        <v>2.105810130747606</v>
+        <v>2.10581038269061</v>
       </c>
       <c r="E36" t="n">
         <v>2378</v>
@@ -1278,10 +1278,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C37" t="n">
-        <v>2.071295484191569</v>
+        <v>2.071295770500908</v>
       </c>
       <c r="D37" t="n">
-        <v>2.102902558956098</v>
+        <v>2.102902813024351</v>
       </c>
       <c r="E37" t="n">
         <v>2366</v>
@@ -1301,10 +1301,10 @@
         <v>0.8673469387755102</v>
       </c>
       <c r="C38" t="n">
-        <v>2.078386631181397</v>
+        <v>2.078386890746462</v>
       </c>
       <c r="D38" t="n">
-        <v>2.104468134270728</v>
+        <v>2.104468374180411</v>
       </c>
       <c r="E38" t="n">
         <v>2338</v>
@@ -1324,10 +1324,10 @@
         <v>0.8775510204081632</v>
       </c>
       <c r="C39" t="n">
-        <v>2.071491415478592</v>
+        <v>2.07149166505767</v>
       </c>
       <c r="D39" t="n">
-        <v>2.099912512728013</v>
+        <v>2.099912760885922</v>
       </c>
       <c r="E39" t="n">
         <v>2307</v>
@@ -1347,10 +1347,10 @@
         <v>0.8877551020408163</v>
       </c>
       <c r="C40" t="n">
-        <v>2.066794449267984</v>
+        <v>2.066794665021235</v>
       </c>
       <c r="D40" t="n">
-        <v>2.09187877933332</v>
+        <v>2.091879016554753</v>
       </c>
       <c r="E40" t="n">
         <v>2276</v>
@@ -1370,10 +1370,10 @@
         <v>0.8979591836734693</v>
       </c>
       <c r="C41" t="n">
-        <v>2.060393450455756</v>
+        <v>2.060393679712671</v>
       </c>
       <c r="D41" t="n">
-        <v>2.079396013107617</v>
+        <v>2.079396263144165</v>
       </c>
       <c r="E41" t="n">
         <v>2239</v>
@@ -1393,10 +1393,10 @@
         <v>0.9081632653061225</v>
       </c>
       <c r="C42" t="n">
-        <v>2.04916589698215</v>
+        <v>2.049166161090647</v>
       </c>
       <c r="D42" t="n">
-        <v>2.065359479491986</v>
+        <v>2.065359768396424</v>
       </c>
       <c r="E42" t="n">
         <v>2189</v>
@@ -1416,10 +1416,10 @@
         <v>0.9183673469387754</v>
       </c>
       <c r="C43" t="n">
-        <v>2.031195984609805</v>
+        <v>2.031196260507067</v>
       </c>
       <c r="D43" t="n">
-        <v>2.042622282345639</v>
+        <v>2.042622580063124</v>
       </c>
       <c r="E43" t="n">
         <v>2137</v>
@@ -1439,10 +1439,10 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="C44" t="n">
-        <v>2.028617476820338</v>
+        <v>2.028617681641434</v>
       </c>
       <c r="D44" t="n">
-        <v>2.034839674772162</v>
+        <v>2.03483988424859</v>
       </c>
       <c r="E44" t="n">
         <v>2044</v>
@@ -1462,10 +1462,10 @@
         <v>0.9387755102040816</v>
       </c>
       <c r="C45" t="n">
-        <v>2.018705117241267</v>
+        <v>2.018705204001349</v>
       </c>
       <c r="D45" t="n">
-        <v>2.021975283519605</v>
+        <v>2.021975380150653</v>
       </c>
       <c r="E45" t="n">
         <v>1938</v>
@@ -1485,10 +1485,10 @@
         <v>0.9489795918367346</v>
       </c>
       <c r="C46" t="n">
-        <v>1.990445506440414</v>
+        <v>1.990445645986936</v>
       </c>
       <c r="D46" t="n">
-        <v>1.997742065091099</v>
+        <v>1.997742183243519</v>
       </c>
       <c r="E46" t="n">
         <v>1778</v>
@@ -1508,10 +1508,10 @@
         <v>0.9591836734693877</v>
       </c>
       <c r="C47" t="n">
-        <v>1.982498982892252</v>
+        <v>1.98249911417648</v>
       </c>
       <c r="D47" t="n">
-        <v>1.956932562237656</v>
+        <v>1.95693277796109</v>
       </c>
       <c r="E47" t="n">
         <v>1569</v>
@@ -1531,10 +1531,10 @@
         <v>0.9693877551020408</v>
       </c>
       <c r="C48" t="n">
-        <v>1.911033863052401</v>
+        <v>1.911033931152241</v>
       </c>
       <c r="D48" t="n">
-        <v>1.835499118996291</v>
+        <v>1.835499401676924</v>
       </c>
       <c r="E48" t="n">
         <v>1276</v>
@@ -1554,10 +1554,10 @@
         <v>0.9795918367346939</v>
       </c>
       <c r="C49" t="n">
-        <v>1.582518061710784</v>
+        <v>1.582518885116557</v>
       </c>
       <c r="D49" t="n">
-        <v>1.504352227568633</v>
+        <v>1.50435253301052</v>
       </c>
       <c r="E49" t="n">
         <v>705</v>
@@ -1577,10 +1577,10 @@
         <v>0.9897959183673469</v>
       </c>
       <c r="C50" t="n">
-        <v>1.388206956241795</v>
+        <v>1.388207101172524</v>
       </c>
       <c r="D50" t="n">
-        <v>1.270685170990286</v>
+        <v>1.270685294233264</v>
       </c>
       <c r="E50" t="n">
         <v>170</v>

--- a/publication/analyses/outputs/supfigs/gdptlab_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/gdptlab_rmse-z_by_c-min.xlsx
@@ -473,10 +473,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D2" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E2" t="n">
         <v>2505</v>
@@ -496,10 +496,10 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="C3" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D3" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E3" t="n">
         <v>2505</v>
@@ -519,10 +519,10 @@
         <v>0.5204081632653061</v>
       </c>
       <c r="C4" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D4" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E4" t="n">
         <v>2505</v>
@@ -542,10 +542,10 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="C5" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D5" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E5" t="n">
         <v>2505</v>
@@ -565,10 +565,10 @@
         <v>0.5408163265306123</v>
       </c>
       <c r="C6" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D6" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E6" t="n">
         <v>2505</v>
@@ -588,10 +588,10 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="C7" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D7" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E7" t="n">
         <v>2505</v>
@@ -611,10 +611,10 @@
         <v>0.5612244897959183</v>
       </c>
       <c r="C8" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D8" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E8" t="n">
         <v>2505</v>
@@ -634,10 +634,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D9" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E9" t="n">
         <v>2505</v>
@@ -657,10 +657,10 @@
         <v>0.5816326530612245</v>
       </c>
       <c r="C10" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D10" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E10" t="n">
         <v>2505</v>
@@ -680,10 +680,10 @@
         <v>0.5918367346938775</v>
       </c>
       <c r="C11" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D11" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E11" t="n">
         <v>2505</v>
@@ -703,10 +703,10 @@
         <v>0.6020408163265306</v>
       </c>
       <c r="C12" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D12" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E12" t="n">
         <v>2505</v>
@@ -726,10 +726,10 @@
         <v>0.6122448979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D13" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E13" t="n">
         <v>2505</v>
@@ -749,10 +749,10 @@
         <v>0.6224489795918368</v>
       </c>
       <c r="C14" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D14" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E14" t="n">
         <v>2505</v>
@@ -772,10 +772,10 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="C15" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D15" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E15" t="n">
         <v>2505</v>
@@ -795,10 +795,10 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="C16" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D16" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E16" t="n">
         <v>2505</v>
@@ -818,10 +818,10 @@
         <v>0.6530612244897959</v>
       </c>
       <c r="C17" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D17" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E17" t="n">
         <v>2505</v>
@@ -841,10 +841,10 @@
         <v>0.6632653061224489</v>
       </c>
       <c r="C18" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D18" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E18" t="n">
         <v>2505</v>
@@ -864,10 +864,10 @@
         <v>0.673469387755102</v>
       </c>
       <c r="C19" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D19" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E19" t="n">
         <v>2505</v>
@@ -887,10 +887,10 @@
         <v>0.6836734693877551</v>
       </c>
       <c r="C20" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D20" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E20" t="n">
         <v>2505</v>
@@ -910,10 +910,10 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>2.080080285147816</v>
+        <v>2.080080197223827</v>
       </c>
       <c r="D21" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="E21" t="n">
         <v>2505</v>
@@ -933,10 +933,10 @@
         <v>0.7040816326530612</v>
       </c>
       <c r="C22" t="n">
-        <v>2.079473870866591</v>
+        <v>2.079473782076844</v>
       </c>
       <c r="D22" t="n">
-        <v>2.136793739392059</v>
+        <v>2.13679357200972</v>
       </c>
       <c r="E22" t="n">
         <v>2500</v>
@@ -956,10 +956,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>2.080684880113653</v>
+        <v>2.080684789221754</v>
       </c>
       <c r="D23" t="n">
-        <v>2.136280269825197</v>
+        <v>2.136280101268165</v>
       </c>
       <c r="E23" t="n">
         <v>2494</v>
@@ -979,10 +979,10 @@
         <v>0.7244897959183674</v>
       </c>
       <c r="C24" t="n">
-        <v>2.082167794276499</v>
+        <v>2.082167702529648</v>
       </c>
       <c r="D24" t="n">
-        <v>2.135554646700285</v>
+        <v>2.13555447655264</v>
       </c>
       <c r="E24" t="n">
         <v>2481</v>
@@ -1002,10 +1002,10 @@
         <v>0.7346938775510203</v>
       </c>
       <c r="C25" t="n">
-        <v>2.08244532169221</v>
+        <v>2.08244523490501</v>
       </c>
       <c r="D25" t="n">
-        <v>2.127589824506372</v>
+        <v>2.1275896541234</v>
       </c>
       <c r="E25" t="n">
         <v>2466</v>
@@ -1025,10 +1025,10 @@
         <v>0.7448979591836735</v>
       </c>
       <c r="C26" t="n">
-        <v>2.082927628195003</v>
+        <v>2.082927540952968</v>
       </c>
       <c r="D26" t="n">
-        <v>2.127329851444583</v>
+        <v>2.127329680611886</v>
       </c>
       <c r="E26" t="n">
         <v>2463</v>
@@ -1048,10 +1048,10 @@
         <v>0.7551020408163265</v>
       </c>
       <c r="C27" t="n">
-        <v>2.08180166241221</v>
+        <v>2.081801574706677</v>
       </c>
       <c r="D27" t="n">
-        <v>2.124988786269146</v>
+        <v>2.12498861823692</v>
       </c>
       <c r="E27" t="n">
         <v>2457</v>
@@ -1071,10 +1071,10 @@
         <v>0.7653061224489796</v>
       </c>
       <c r="C28" t="n">
-        <v>2.082165943680747</v>
+        <v>2.082165855989177</v>
       </c>
       <c r="D28" t="n">
-        <v>2.126195795769773</v>
+        <v>2.126195627495236</v>
       </c>
       <c r="E28" t="n">
         <v>2448</v>
@@ -1094,10 +1094,10 @@
         <v>0.7755102040816326</v>
       </c>
       <c r="C29" t="n">
-        <v>2.079738071531175</v>
+        <v>2.079737983611545</v>
       </c>
       <c r="D29" t="n">
-        <v>2.124861762704142</v>
+        <v>2.124861593842919</v>
       </c>
       <c r="E29" t="n">
         <v>2441</v>
@@ -1117,10 +1117,10 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>2.079508893355738</v>
+        <v>2.079508805434421</v>
       </c>
       <c r="D30" t="n">
-        <v>2.121556686447159</v>
+        <v>2.121556516968781</v>
       </c>
       <c r="E30" t="n">
         <v>2436</v>
@@ -1140,10 +1140,10 @@
         <v>0.7959183673469388</v>
       </c>
       <c r="C31" t="n">
-        <v>2.0790536266728</v>
+        <v>2.079053538156187</v>
       </c>
       <c r="D31" t="n">
-        <v>2.119864173534417</v>
+        <v>2.119864003400489</v>
       </c>
       <c r="E31" t="n">
         <v>2431</v>
@@ -1163,10 +1163,10 @@
         <v>0.8061224489795917</v>
       </c>
       <c r="C32" t="n">
-        <v>2.079608261473757</v>
+        <v>2.079608172953501</v>
       </c>
       <c r="D32" t="n">
-        <v>2.119958806842429</v>
+        <v>2.11995863655964</v>
       </c>
       <c r="E32" t="n">
         <v>2429</v>
@@ -1186,10 +1186,10 @@
         <v>0.8163265306122449</v>
       </c>
       <c r="C33" t="n">
-        <v>2.074153452317594</v>
+        <v>2.074153365299348</v>
       </c>
       <c r="D33" t="n">
-        <v>2.113222162087421</v>
+        <v>2.113221990348109</v>
       </c>
       <c r="E33" t="n">
         <v>2417</v>
@@ -1209,10 +1209,10 @@
         <v>0.8265306122448979</v>
       </c>
       <c r="C34" t="n">
-        <v>2.073783220027638</v>
+        <v>2.073783134214444</v>
       </c>
       <c r="D34" t="n">
-        <v>2.111660404112524</v>
+        <v>2.111660231964197</v>
       </c>
       <c r="E34" t="n">
         <v>2409</v>
@@ -1232,10 +1232,10 @@
         <v>0.8367346938775511</v>
       </c>
       <c r="C35" t="n">
-        <v>2.078419944008695</v>
+        <v>2.078419845727482</v>
       </c>
       <c r="D35" t="n">
-        <v>2.112066459888543</v>
+        <v>2.112066269666328</v>
       </c>
       <c r="E35" t="n">
         <v>2393</v>
@@ -1255,10 +1255,10 @@
         <v>0.846938775510204</v>
       </c>
       <c r="C36" t="n">
-        <v>2.070943611115337</v>
+        <v>2.070943500199122</v>
       </c>
       <c r="D36" t="n">
-        <v>2.10581038269061</v>
+        <v>2.105810177580935</v>
       </c>
       <c r="E36" t="n">
         <v>2378</v>
@@ -1278,10 +1278,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C37" t="n">
-        <v>2.071295770500908</v>
+        <v>2.071295658723962</v>
       </c>
       <c r="D37" t="n">
-        <v>2.102902813024351</v>
+        <v>2.10290260694821</v>
       </c>
       <c r="E37" t="n">
         <v>2366</v>
@@ -1301,10 +1301,10 @@
         <v>0.8673469387755102</v>
       </c>
       <c r="C38" t="n">
-        <v>2.078386890746462</v>
+        <v>2.078386793053908</v>
       </c>
       <c r="D38" t="n">
-        <v>2.104468374180411</v>
+        <v>2.104468169059611</v>
       </c>
       <c r="E38" t="n">
         <v>2338</v>
@@ -1324,10 +1324,10 @@
         <v>0.8775510204081632</v>
       </c>
       <c r="C39" t="n">
-        <v>2.07149166505767</v>
+        <v>2.071491564226291</v>
       </c>
       <c r="D39" t="n">
-        <v>2.099912760885922</v>
+        <v>2.099912556100752</v>
       </c>
       <c r="E39" t="n">
         <v>2307</v>
@@ -1347,10 +1347,10 @@
         <v>0.8877551020408163</v>
       </c>
       <c r="C40" t="n">
-        <v>2.066794665021235</v>
+        <v>2.066794570203051</v>
       </c>
       <c r="D40" t="n">
-        <v>2.091879016554753</v>
+        <v>2.091878826471267</v>
       </c>
       <c r="E40" t="n">
         <v>2276</v>
@@ -1370,10 +1370,10 @@
         <v>0.8979591836734693</v>
       </c>
       <c r="C41" t="n">
-        <v>2.060393679712671</v>
+        <v>2.060393587893888</v>
       </c>
       <c r="D41" t="n">
-        <v>2.079396263144165</v>
+        <v>2.079396073990176</v>
       </c>
       <c r="E41" t="n">
         <v>2239</v>
@@ -1393,10 +1393,10 @@
         <v>0.9081632653061225</v>
       </c>
       <c r="C42" t="n">
-        <v>2.049166161090647</v>
+        <v>2.049166057947703</v>
       </c>
       <c r="D42" t="n">
-        <v>2.065359768396424</v>
+        <v>2.065359562983283</v>
       </c>
       <c r="E42" t="n">
         <v>2189</v>
@@ -1416,10 +1416,10 @@
         <v>0.9183673469387754</v>
       </c>
       <c r="C43" t="n">
-        <v>2.031196260507067</v>
+        <v>2.031196158518488</v>
       </c>
       <c r="D43" t="n">
-        <v>2.042622580063124</v>
+        <v>2.042622378821612</v>
       </c>
       <c r="E43" t="n">
         <v>2137</v>
@@ -1439,10 +1439,10 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="C44" t="n">
-        <v>2.028617681641434</v>
+        <v>2.028617623188689</v>
       </c>
       <c r="D44" t="n">
-        <v>2.03483988424859</v>
+        <v>2.034839765698711</v>
       </c>
       <c r="E44" t="n">
         <v>2044</v>
@@ -1462,10 +1462,10 @@
         <v>0.9387755102040816</v>
       </c>
       <c r="C45" t="n">
-        <v>2.018705204001349</v>
+        <v>2.018705254909585</v>
       </c>
       <c r="D45" t="n">
-        <v>2.021975380150653</v>
+        <v>2.021975394467498</v>
       </c>
       <c r="E45" t="n">
         <v>1938</v>
@@ -1485,10 +1485,10 @@
         <v>0.9489795918367346</v>
       </c>
       <c r="C46" t="n">
-        <v>1.990445645986936</v>
+        <v>1.990445727245224</v>
       </c>
       <c r="D46" t="n">
-        <v>1.997742183243519</v>
+        <v>1.997742236112625</v>
       </c>
       <c r="E46" t="n">
         <v>1778</v>
@@ -1508,10 +1508,10 @@
         <v>0.9591836734693877</v>
       </c>
       <c r="C47" t="n">
-        <v>1.98249911417648</v>
+        <v>1.982499073980351</v>
       </c>
       <c r="D47" t="n">
-        <v>1.95693277796109</v>
+        <v>1.956932724944466</v>
       </c>
       <c r="E47" t="n">
         <v>1569</v>
@@ -1531,10 +1531,10 @@
         <v>0.9693877551020408</v>
       </c>
       <c r="C48" t="n">
-        <v>1.911033931152241</v>
+        <v>1.911033775425436</v>
       </c>
       <c r="D48" t="n">
-        <v>1.835499401676924</v>
+        <v>1.835499324381663</v>
       </c>
       <c r="E48" t="n">
         <v>1276</v>
@@ -1554,10 +1554,10 @@
         <v>0.9795918367346939</v>
       </c>
       <c r="C49" t="n">
-        <v>1.582518885116557</v>
+        <v>1.582518872277438</v>
       </c>
       <c r="D49" t="n">
-        <v>1.50435253301052</v>
+        <v>1.504352583384253</v>
       </c>
       <c r="E49" t="n">
         <v>705</v>
@@ -1577,10 +1577,10 @@
         <v>0.9897959183673469</v>
       </c>
       <c r="C50" t="n">
-        <v>1.388207101172524</v>
+        <v>1.388207116021066</v>
       </c>
       <c r="D50" t="n">
-        <v>1.270685294233264</v>
+        <v>1.270685131667018</v>
       </c>
       <c r="E50" t="n">
         <v>170</v>
